--- a/Redis指南.xlsx
+++ b/Redis指南.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8D2FFF-A488-420B-8D4B-117E7CC08F72}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
-    <sheet name="配置数据库" sheetId="4" r:id="rId2"/>
-    <sheet name="启动和停止" sheetId="2" r:id="rId3"/>
-    <sheet name="操作命令" sheetId="3" r:id="rId4"/>
+    <sheet name="Docker安装" sheetId="5" r:id="rId2"/>
+    <sheet name="配置数据库" sheetId="4" r:id="rId3"/>
+    <sheet name="启动和停止" sheetId="2" r:id="rId4"/>
+    <sheet name="操作命令" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>OS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,11 +377,19 @@
     <t>killall redis-server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> docker run -d -p 6379:6379 --name myredis redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,7 +481,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -508,7 +517,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85DC7329-B9C5-43EE-942B-E41FD5B7B5EF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85DC7329-B9C5-43EE-942B-E41FD5B7B5EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -552,7 +561,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053C2FB9-9D3C-4066-B6FF-4ADE41711FD2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053C2FB9-9D3C-4066-B6FF-4ADE41711FD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -601,7 +610,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D425C119-6B52-41B0-B536-F196F42288BC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D425C119-6B52-41B0-B536-F196F42288BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -645,7 +654,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6031E2F4-6166-4D6A-A07D-79016C0E574D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6031E2F4-6166-4D6A-A07D-79016C0E574D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -689,7 +698,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA60C2D-7623-4FB3-8B30-C46E10F2EA2D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA60C2D-7623-4FB3-8B30-C46E10F2EA2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -733,7 +742,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401227F2-9F94-4A04-8BEA-CB1E5F3CB530}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401227F2-9F94-4A04-8BEA-CB1E5F3CB530}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -777,7 +786,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E905993F-F949-499B-A4AF-FD592376930C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E905993F-F949-499B-A4AF-FD592376930C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -821,7 +830,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C82A88EB-6432-4213-B155-7AAFE8EAE7A1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C82A88EB-6432-4213-B155-7AAFE8EAE7A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -870,7 +879,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60D08AD-B188-4D54-983E-6ED288C757DF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60D08AD-B188-4D54-983E-6ED288C757DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,7 +1170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -1336,11 +1345,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54B12B1-0BFE-4D9A-A091-25A16F085B3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1422,8 +1458,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -1505,12 +1541,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Redis指南.xlsx
+++ b/Redis指南.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0F3E4F-38DA-4C3A-A111-6184E4241DCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,6 @@
     <sheet name="操作命令" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,7 +481,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -517,7 +517,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85DC7329-B9C5-43EE-942B-E41FD5B7B5EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85DC7329-B9C5-43EE-942B-E41FD5B7B5EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -561,7 +561,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053C2FB9-9D3C-4066-B6FF-4ADE41711FD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053C2FB9-9D3C-4066-B6FF-4ADE41711FD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -610,7 +610,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D425C119-6B52-41B0-B536-F196F42288BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D425C119-6B52-41B0-B536-F196F42288BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -654,7 +654,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6031E2F4-6166-4D6A-A07D-79016C0E574D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6031E2F4-6166-4D6A-A07D-79016C0E574D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -698,7 +698,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA60C2D-7623-4FB3-8B30-C46E10F2EA2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA60C2D-7623-4FB3-8B30-C46E10F2EA2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -742,7 +742,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401227F2-9F94-4A04-8BEA-CB1E5F3CB530}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401227F2-9F94-4A04-8BEA-CB1E5F3CB530}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -786,7 +786,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E905993F-F949-499B-A4AF-FD592376930C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E905993F-F949-499B-A4AF-FD592376930C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -830,7 +830,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C82A88EB-6432-4213-B155-7AAFE8EAE7A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C82A88EB-6432-4213-B155-7AAFE8EAE7A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -879,7 +879,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60D08AD-B188-4D54-983E-6ED288C757DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60D08AD-B188-4D54-983E-6ED288C757DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1170,7 +1170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -1345,17 +1345,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -1459,7 +1459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -1542,7 +1542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Redis指南.xlsx
+++ b/Redis指南.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0F3E4F-38DA-4C3A-A111-6184E4241DCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
     <sheet name="Docker安装" sheetId="5" r:id="rId2"/>
-    <sheet name="配置数据库" sheetId="4" r:id="rId3"/>
-    <sheet name="启动和停止" sheetId="2" r:id="rId4"/>
-    <sheet name="操作命令" sheetId="3" r:id="rId5"/>
+    <sheet name="Docker集群安装" sheetId="7" r:id="rId3"/>
+    <sheet name="配置数据库" sheetId="4" r:id="rId4"/>
+    <sheet name="启动和停止" sheetId="2" r:id="rId5"/>
+    <sheet name="操作命令" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>OS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,11 +385,95 @@
     <t xml:space="preserve"> docker run -d -p 6379:6379 --name myredis redis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>预备工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入redis1目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim redis-6380.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入redis2目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入redis3目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker exec -it redis-6379 /bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis-cli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auth 123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.进入master </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.进入slave </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker exec -it redis-6380 /bin/bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set test 111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkdir redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkdir redis/redis1  redis/redis2 redis/redis3 redis/sentinel1 redis/sentinel2 redis/sentinel3 redis/data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim redis-6379.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim redis-6381.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis-cli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,7 +565,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -517,7 +601,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85DC7329-B9C5-43EE-942B-E41FD5B7B5EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85DC7329-B9C5-43EE-942B-E41FD5B7B5EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -561,7 +645,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053C2FB9-9D3C-4066-B6FF-4ADE41711FD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{053C2FB9-9D3C-4066-B6FF-4ADE41711FD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -592,6 +676,476 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2052998" cy="2331279"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="1476375"/>
+          <a:ext cx="2052998" cy="2331279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>port 6379</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>logfile "redis-6379.log"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>dir /data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>appendonly yes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>appendfilename appendonly.aof</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>masterauth 123456</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>requirepass 123456</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2052998" cy="2675732"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="4772025"/>
+          <a:ext cx="2052998" cy="2675732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>port 6380</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>logfile "redis-6380.log"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>dir /data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>appendonly yes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>appendfilename appendonly.aof</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>slaveof </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>54.249.79.156 6379</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>masterauth 123456</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>requirepass 123456</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2052998" cy="2675732"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="8372475"/>
+          <a:ext cx="2052998" cy="2675732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>port 6381</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>logfile "redis-6381.log"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>dir /data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>appendonly yes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>appendfilename appendonly.aof</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>slaveof </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>54.249.79.156 6379</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>masterauth 123456</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>requirepass 123456</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="14419525" cy="953466"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="11763375"/>
+          <a:ext cx="14419525" cy="953466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>docker run -p 6379:6379 --net=host --restart=always --name redis-6379 -v /home/ec2-user/redis/redis1/redis-6379.conf:/etc/redis/redis-6379.conf -v /home/ec2-user/redis/data/redis-6379-data:/data -d redis redis-server /etc/redis/redis-6379.conf</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>docker run -p 6379:6380 --net=host --restart=always --name redis-6380 -v /home/ec2-user/redis/redis2/redis-6380.conf:/etc/redis/redis-6380.conf -v /home/ec2-user/redis/data/redis-6380-data:/data -d redis redis-server /etc/redis/redis-6380.conf</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>docker run -p 6379:6381 --net=host --restart=always --name redis-6381 -v /home/ec2-user/redis/redis3/redis-6381.conf:/etc/redis/redis-6381.conf -v /home/ec2-user/redis/data/redis-6381-data:/data -d redis redis-server /etc/redis/redis-6381.conf</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -610,7 +1164,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D425C119-6B52-41B0-B536-F196F42288BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D425C119-6B52-41B0-B536-F196F42288BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -654,7 +1208,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6031E2F4-6166-4D6A-A07D-79016C0E574D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6031E2F4-6166-4D6A-A07D-79016C0E574D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -698,7 +1252,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA60C2D-7623-4FB3-8B30-C46E10F2EA2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAA60C2D-7623-4FB3-8B30-C46E10F2EA2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -742,7 +1296,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401227F2-9F94-4A04-8BEA-CB1E5F3CB530}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{401227F2-9F94-4A04-8BEA-CB1E5F3CB530}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -786,7 +1340,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E905993F-F949-499B-A4AF-FD592376930C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E905993F-F949-499B-A4AF-FD592376930C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -830,7 +1384,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C82A88EB-6432-4213-B155-7AAFE8EAE7A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C82A88EB-6432-4213-B155-7AAFE8EAE7A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -859,7 +1413,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -879,7 +1433,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60D08AD-B188-4D54-983E-6ED288C757DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E60D08AD-B188-4D54-983E-6ED288C757DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1170,11 +1724,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1345,11 +1899,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1372,7 +1926,130 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -1458,11 +2135,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -1541,12 +2218,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
